--- a/biology/Botanique/Altissimo_(rose)/Altissimo_(rose).xlsx
+++ b/biology/Botanique/Altissimo_(rose)/Altissimo_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Altissimo' est un cultivar de rosier obtenu par la maison Delbard-Chabert en 1966. 
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De la famille des floribunda, ce rosier grimpant peut atteindre 3 mètres de haut.
-Ses fleurs sont en forme de grandes églantines simples de couleur rouge sang avec des étamines jaunes bien visibles. 'Altissimo' fleurit de juin à l'automne et son feuillage est vert clair. Il peut aussi être élevé sans support et devient alors un grand arbuste[1].
+Ses fleurs sont en forme de grandes églantines simples de couleur rouge sang avec des étamines jaunes bien visibles. 'Altissimo' fleurit de juin à l'automne et son feuillage est vert clair. Il peut aussi être élevé sans support et devient alors un grand arbuste.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par croisement avec 'Roller Coaster', il a donné le grimpant 'Fourth of July' (Carruth, 1999).
 </t>
